--- a/upload/excel/2504_명장초_발주서_이가에프_업로드용.xlsx
+++ b/upload/excel/2504_명장초_발주서_이가에프_업로드용.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AJ21"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
@@ -761,6 +762,11 @@
       <c r="AJ5" s="2" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -832,6 +838,9 @@
         <is>
           <t>7</t>
         </is>
+      </c>
+      <c r="AK6" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="7">
@@ -902,6 +911,9 @@
         <is>
           <t>21</t>
         </is>
+      </c>
+      <c r="AK7" t="n">
+        <v>12000</v>
       </c>
     </row>
     <row r="8">
@@ -973,6 +985,9 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AK8" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1042,6 +1057,9 @@
         <is>
           <t>14</t>
         </is>
+      </c>
+      <c r="AK9" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="10">
@@ -1113,6 +1131,9 @@
           <t>18</t>
         </is>
       </c>
+      <c r="AK10" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -1182,6 +1203,9 @@
         <is>
           <t>33</t>
         </is>
+      </c>
+      <c r="AK11" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="12">
@@ -1253,6 +1277,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AK12" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
@@ -1327,6 +1354,9 @@
           <t>52</t>
         </is>
       </c>
+      <c r="AK13" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
@@ -1392,6 +1422,9 @@
         <is>
           <t>19</t>
         </is>
+      </c>
+      <c r="AK14" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="15">
@@ -1459,6 +1492,9 @@
           <t>38</t>
         </is>
       </c>
+      <c r="AK15" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
@@ -1528,6 +1564,9 @@
         <is>
           <t>19</t>
         </is>
+      </c>
+      <c r="AK16" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="17">
@@ -1603,6 +1642,9 @@
           <t>12.5</t>
         </is>
       </c>
+      <c r="AK17" t="n">
+        <v>34000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
@@ -1676,6 +1718,9 @@
         <is>
           <t>4.1</t>
         </is>
+      </c>
+      <c r="AK18" t="n">
+        <v>34000</v>
       </c>
     </row>
     <row r="19">
@@ -1747,6 +1792,9 @@
           <t>4.2</t>
         </is>
       </c>
+      <c r="AK19" t="n">
+        <v>34000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -1813,6 +1861,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="AK20" t="n">
+        <v>19581</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr"/>
